--- a/Team-Data/2014-15/2-8-2014-15.xlsx
+++ b/Team-Data/2014-15/2-8-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,58 +733,58 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="n">
         <v>42</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.824</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
       </c>
       <c r="I2" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J2" t="n">
         <v>80.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.471</v>
+        <v>0.472</v>
       </c>
       <c r="L2" t="n">
         <v>9.9</v>
       </c>
       <c r="M2" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="N2" t="n">
         <v>0.391</v>
       </c>
       <c r="O2" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P2" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R2" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="S2" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T2" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U2" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="V2" t="n">
         <v>14.1</v>
@@ -735,28 +802,28 @@
         <v>18.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.5</v>
+        <v>103.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -765,13 +832,13 @@
         <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
       </c>
       <c r="AM2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN2" t="n">
         <v>1</v>
@@ -783,13 +850,13 @@
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR2" t="n">
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
@@ -804,16 +871,16 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AY2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BB2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -926,16 +993,16 @@
         <v>-1.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>20</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>14</v>
@@ -974,31 +1041,31 @@
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>17</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>-3.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>23</v>
@@ -1138,7 +1205,7 @@
         <v>19</v>
       </c>
       <c r="AN4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO4" t="n">
         <v>22</v>
@@ -1153,13 +1220,13 @@
         <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT4" t="n">
         <v>23</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
         <v>14</v>
@@ -1171,19 +1238,19 @@
         <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ4" t="n">
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" t="n">
-        <v>0.431</v>
+        <v>0.44</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
@@ -1230,7 +1297,7 @@
         <v>35.8</v>
       </c>
       <c r="J5" t="n">
-        <v>84.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="K5" t="n">
         <v>0.423</v>
@@ -1239,31 +1306,31 @@
         <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.306</v>
+        <v>0.302</v>
       </c>
       <c r="O5" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P5" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.735</v>
+        <v>0.734</v>
       </c>
       <c r="R5" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S5" t="n">
         <v>33.9</v>
       </c>
       <c r="T5" t="n">
-        <v>44</v>
+        <v>44.2</v>
       </c>
       <c r="U5" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V5" t="n">
         <v>11.8</v>
@@ -1272,25 +1339,25 @@
         <v>5.9</v>
       </c>
       <c r="X5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA5" t="n">
         <v>21.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="AC5" t="n">
         <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1302,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI5" t="n">
         <v>28</v>
@@ -1332,16 +1399,16 @@
         <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS5" t="n">
         <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1350,10 +1417,10 @@
         <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="n">
         <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.615</v>
+        <v>0.608</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
@@ -1412,10 +1479,10 @@
         <v>36.8</v>
       </c>
       <c r="J6" t="n">
-        <v>83.2</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L6" t="n">
         <v>7.7</v>
@@ -1427,61 +1494,61 @@
         <v>0.359</v>
       </c>
       <c r="O6" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="P6" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.784</v>
+        <v>0.782</v>
       </c>
       <c r="R6" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S6" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="T6" t="n">
-        <v>45.8</v>
+        <v>46</v>
       </c>
       <c r="U6" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V6" t="n">
         <v>14.2</v>
       </c>
       <c r="W6" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X6" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AA6" t="n">
         <v>22</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="AC6" t="n">
         <v>2.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
         <v>5</v>
@@ -1490,7 +1557,7 @@
         <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
         <v>20</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1517,13 +1584,13 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AV6" t="n">
         <v>12</v>
@@ -1535,16 +1602,16 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA6" t="n">
         <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC6" t="n">
         <v>11</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -1576,58 +1643,58 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="n">
         <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>0.604</v>
+        <v>0.596</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J7" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.455</v>
+        <v>0.453</v>
       </c>
       <c r="L7" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M7" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.354</v>
+        <v>0.35</v>
       </c>
       <c r="O7" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P7" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.753</v>
+        <v>0.755</v>
       </c>
       <c r="R7" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S7" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="T7" t="n">
         <v>42.7</v>
       </c>
       <c r="U7" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V7" t="n">
         <v>13.9</v>
@@ -1636,7 +1703,7 @@
         <v>7.3</v>
       </c>
       <c r="X7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y7" t="n">
         <v>4.8</v>
@@ -1645,19 +1712,19 @@
         <v>18.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
-        <v>102</v>
+        <v>101.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
@@ -1675,22 +1742,22 @@
         <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM7" t="n">
         <v>8</v>
       </c>
-      <c r="AM7" t="n">
-        <v>7</v>
-      </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
         <v>16</v>
@@ -1699,25 +1766,25 @@
         <v>10</v>
       </c>
       <c r="AS7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
       </c>
       <c r="AW7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
         <v>25</v>
       </c>
       <c r="AY7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
@@ -1726,7 +1793,7 @@
         <v>9</v>
       </c>
       <c r="BB7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -1758,34 +1825,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" t="n">
         <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>0.673</v>
+        <v>0.66</v>
       </c>
       <c r="H8" t="n">
         <v>48.6</v>
       </c>
       <c r="I8" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="J8" t="n">
-        <v>86.40000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="L8" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>27</v>
+        <v>26.9</v>
       </c>
       <c r="N8" t="n">
         <v>0.359</v>
@@ -1797,22 +1864,22 @@
         <v>21.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.755</v>
+        <v>0.757</v>
       </c>
       <c r="R8" t="n">
         <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="U8" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V8" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="W8" t="n">
         <v>8.199999999999999</v>
@@ -1827,34 +1894,34 @@
         <v>19.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1866,22 +1933,22 @@
         <v>4</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>21</v>
       </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR8" t="n">
         <v>15</v>
       </c>
-      <c r="AR8" t="n">
-        <v>14</v>
-      </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT8" t="n">
         <v>20</v>
@@ -1899,7 +1966,7 @@
         <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ8" t="n">
         <v>13</v>
@@ -1911,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -2018,22 +2085,22 @@
         <v>-3.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
         <v>22</v>
       </c>
-      <c r="AF9" t="n">
-        <v>21</v>
-      </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI9" t="n">
         <v>16</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>18</v>
       </c>
       <c r="AJ9" t="n">
         <v>4</v>
@@ -2051,7 +2118,7 @@
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
         <v>5</v>
@@ -2060,7 +2127,7 @@
         <v>22</v>
       </c>
       <c r="AR9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AS9" t="n">
         <v>10</v>
@@ -2069,28 +2136,28 @@
         <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV9" t="n">
         <v>13</v>
       </c>
       <c r="AW9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX9" t="n">
         <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC9" t="n">
         <v>22</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" t="n">
-        <v>0.385</v>
+        <v>0.392</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,16 +2207,16 @@
         <v>36.7</v>
       </c>
       <c r="J10" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.429</v>
+        <v>0.428</v>
       </c>
       <c r="L10" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="N10" t="n">
         <v>0.344</v>
@@ -2161,16 +2228,16 @@
         <v>23</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.707</v>
+        <v>0.706</v>
       </c>
       <c r="R10" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S10" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="T10" t="n">
-        <v>45.4</v>
+        <v>45.6</v>
       </c>
       <c r="U10" t="n">
         <v>21.4</v>
@@ -2179,16 +2246,16 @@
         <v>13.8</v>
       </c>
       <c r="W10" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X10" t="n">
         <v>4.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA10" t="n">
         <v>19.8</v>
@@ -2197,22 +2264,22 @@
         <v>98.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.8</v>
+        <v>-1.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
         <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>22</v>
@@ -2230,7 +2297,7 @@
         <v>10</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
         <v>24</v>
@@ -2245,22 +2312,22 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
       </c>
       <c r="AU10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
@@ -2275,7 +2342,7 @@
         <v>21</v>
       </c>
       <c r="BC10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>11.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2391,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
@@ -2421,10 +2488,10 @@
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2436,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW11" t="n">
         <v>4</v>
@@ -2445,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="AY11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ11" t="n">
         <v>14</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -2489,13 +2556,13 @@
         <v>50</v>
       </c>
       <c r="E12" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2504,40 +2571,40 @@
         <v>36.8</v>
       </c>
       <c r="J12" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L12" t="n">
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O12" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.719</v>
+        <v>0.718</v>
       </c>
       <c r="R12" t="n">
         <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V12" t="n">
         <v>17</v>
@@ -2546,28 +2613,28 @@
         <v>9.800000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y12" t="n">
         <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.7</v>
+        <v>102.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
@@ -2579,7 +2646,7 @@
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="n">
         <v>14</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2615,7 +2682,7 @@
         <v>15</v>
       </c>
       <c r="AU12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2624,22 +2691,22 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" t="n">
         <v>32</v>
       </c>
       <c r="G13" t="n">
-        <v>0.385</v>
+        <v>0.373</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2698,16 +2765,16 @@
         <v>20.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="O13" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P13" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.758</v>
+        <v>0.755</v>
       </c>
       <c r="R13" t="n">
         <v>10.7</v>
@@ -2716,19 +2783,19 @@
         <v>34.1</v>
       </c>
       <c r="T13" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U13" t="n">
         <v>21.1</v>
       </c>
       <c r="V13" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W13" t="n">
         <v>6.1</v>
       </c>
       <c r="X13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y13" t="n">
         <v>4.8</v>
@@ -2740,25 +2807,25 @@
         <v>21.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.7</v>
+        <v>95.5</v>
       </c>
       <c r="AC13" t="n">
         <v>-1.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2767,7 +2834,7 @@
         <v>15</v>
       </c>
       <c r="AK13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
         <v>22</v>
@@ -2785,7 +2852,7 @@
         <v>24</v>
       </c>
       <c r="AQ13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR13" t="n">
         <v>18</v>
@@ -2806,22 +2873,22 @@
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
         <v>8</v>
       </c>
       <c r="BB13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -2850,64 +2917,64 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" t="n">
         <v>33</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>0.635</v>
+        <v>0.647</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J14" t="n">
-        <v>83</v>
+        <v>82.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="M14" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="N14" t="n">
         <v>0.374</v>
       </c>
       <c r="O14" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P14" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
       <c r="R14" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S14" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="T14" t="n">
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="U14" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="V14" t="n">
         <v>12</v>
       </c>
       <c r="W14" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X14" t="n">
         <v>4.8</v>
@@ -2916,7 +2983,7 @@
         <v>3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="AA14" t="n">
         <v>21.3</v>
@@ -2925,16 +2992,16 @@
         <v>106.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
         <v>8</v>
@@ -2961,10 +3028,10 @@
         <v>5</v>
       </c>
       <c r="AO14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ14" t="n">
         <v>23</v>
@@ -2973,7 +3040,7 @@
         <v>27</v>
       </c>
       <c r="AS14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT14" t="n">
         <v>24</v>
@@ -2988,7 +3055,7 @@
         <v>12</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3003,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -3047,46 +3114,46 @@
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>86.2</v>
+        <v>85.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L15" t="n">
         <v>6.8</v>
       </c>
       <c r="M15" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O15" t="n">
-        <v>17.9</v>
+        <v>18.2</v>
       </c>
       <c r="P15" t="n">
-        <v>24</v>
+        <v>24.4</v>
       </c>
       <c r="Q15" t="n">
         <v>0.746</v>
       </c>
       <c r="R15" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S15" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T15" t="n">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="W15" t="n">
         <v>7.3</v>
@@ -3095,22 +3162,22 @@
         <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.6</v>
+        <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,13 +3192,13 @@
         <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
         <v>23</v>
@@ -3140,13 +3207,13 @@
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
         <v>9</v>
       </c>
       <c r="AP15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ15" t="n">
         <v>19</v>
@@ -3158,28 +3225,28 @@
         <v>19</v>
       </c>
       <c r="AT15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
         <v>7</v>
       </c>
       <c r="AW15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA15" t="n">
         <v>18</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>21</v>
       </c>
       <c r="BB15" t="n">
         <v>19</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" t="n">
         <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>0.745</v>
+        <v>0.74</v>
       </c>
       <c r="H16" t="n">
         <v>48.9</v>
       </c>
       <c r="I16" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J16" t="n">
-        <v>83.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L16" t="n">
         <v>5.4</v>
       </c>
       <c r="M16" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="O16" t="n">
         <v>18.5</v>
@@ -3253,19 +3320,19 @@
         <v>23.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.781</v>
+        <v>0.778</v>
       </c>
       <c r="R16" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S16" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T16" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U16" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V16" t="n">
         <v>13</v>
@@ -3280,19 +3347,19 @@
         <v>5.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="AC16" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,10 +3371,10 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ16" t="n">
         <v>17</v>
@@ -3322,22 +3389,22 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP16" t="n">
         <v>11</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT16" t="n">
         <v>16</v>
@@ -3346,7 +3413,7 @@
         <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW16" t="n">
         <v>8</v>
@@ -3358,10 +3425,10 @@
         <v>20</v>
       </c>
       <c r="AZ16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB16" t="n">
         <v>12</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>-3.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>18</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3543,13 +3610,13 @@
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>29</v>
       </c>
       <c r="BC17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3665,7 +3732,7 @@
         <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
         <v>8</v>
@@ -3689,7 +3756,7 @@
         <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP18" t="n">
         <v>26</v>
@@ -3698,10 +3765,10 @@
         <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT18" t="n">
         <v>25</v>
@@ -3716,16 +3783,16 @@
         <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ18" t="n">
         <v>29</v>
       </c>
       <c r="BA18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
         <v>20</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -3760,58 +3827,58 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
         <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>0.216</v>
+        <v>0.2</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J19" t="n">
-        <v>84.09999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L19" t="n">
         <v>5.1</v>
       </c>
       <c r="M19" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="N19" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="O19" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P19" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.759</v>
+        <v>0.756</v>
       </c>
       <c r="R19" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S19" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T19" t="n">
         <v>40.8</v>
       </c>
       <c r="U19" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V19" t="n">
         <v>15.1</v>
@@ -3820,10 +3887,10 @@
         <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z19" t="n">
         <v>19.6</v>
@@ -3832,13 +3899,13 @@
         <v>21.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.5</v>
+        <v>97.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-8.6</v>
+        <v>-9</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,13 +3917,13 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3874,13 +3941,13 @@
         <v>4</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
@@ -3898,10 +3965,10 @@
         <v>7</v>
       </c>
       <c r="AX19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ19" t="n">
         <v>11</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -3942,67 +4009,67 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F20" t="n">
         <v>24</v>
       </c>
       <c r="G20" t="n">
-        <v>0.52</v>
+        <v>0.529</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J20" t="n">
-        <v>83.90000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.455</v>
+        <v>0.453</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M20" t="n">
         <v>19.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.761</v>
       </c>
       <c r="R20" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="S20" t="n">
         <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>44</v>
+        <v>44.3</v>
       </c>
       <c r="U20" t="n">
         <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
         <v>7</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
@@ -4011,28 +4078,28 @@
         <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
         <v>10</v>
@@ -4041,7 +4108,7 @@
         <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>24</v>
@@ -4050,7 +4117,7 @@
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO20" t="n">
         <v>15</v>
@@ -4059,28 +4126,28 @@
         <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU20" t="n">
         <v>17</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
         <v>29</v>
@@ -4092,7 +4159,7 @@
         <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>-7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF21" t="n">
         <v>30</v>
@@ -4232,7 +4299,7 @@
         <v>20</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
         <v>16</v>
@@ -4253,16 +4320,16 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW21" t="n">
         <v>21</v>
       </c>
       <c r="AX21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY21" t="n">
         <v>6</v>
@@ -4271,7 +4338,7 @@
         <v>25</v>
       </c>
       <c r="BA21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -4306,61 +4373,61 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" t="n">
         <v>25</v>
       </c>
       <c r="G22" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J22" t="n">
-        <v>85</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L22" t="n">
         <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.321</v>
+        <v>0.32</v>
       </c>
       <c r="O22" t="n">
-        <v>17.7</v>
+        <v>17.4</v>
       </c>
       <c r="P22" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="R22" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S22" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="T22" t="n">
-        <v>46.6</v>
+        <v>46.4</v>
       </c>
       <c r="U22" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V22" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W22" t="n">
         <v>7.3</v>
@@ -4369,25 +4436,25 @@
         <v>6</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z22" t="n">
         <v>22.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>100.1</v>
+        <v>99.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF22" t="n">
         <v>16</v>
@@ -4396,7 +4463,7 @@
         <v>16</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>14</v>
@@ -4414,10 +4481,10 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP22" t="n">
         <v>13</v>
@@ -4426,7 +4493,7 @@
         <v>18</v>
       </c>
       <c r="AR22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4438,7 +4505,7 @@
         <v>28</v>
       </c>
       <c r="AV22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW22" t="n">
         <v>19</v>
@@ -4447,19 +4514,19 @@
         <v>3</v>
       </c>
       <c r="AY22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ22" t="n">
         <v>28</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BC22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -4503,40 +4570,40 @@
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J23" t="n">
         <v>81.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="N23" t="n">
         <v>0.361</v>
       </c>
       <c r="O23" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="P23" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.733</v>
+        <v>0.734</v>
       </c>
       <c r="R23" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="U23" t="n">
         <v>20.6</v>
@@ -4545,25 +4612,25 @@
         <v>15</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.8</v>
+        <v>-6.1</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4587,7 +4654,7 @@
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>20</v>
@@ -4611,16 +4678,16 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
       </c>
       <c r="AU23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV23" t="n">
         <v>23</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>24</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
@@ -4629,13 +4696,13 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>19</v>
       </c>
       <c r="BA23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-10.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4784,7 +4851,7 @@
         <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4799,7 +4866,7 @@
         <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4811,7 +4878,7 @@
         <v>4</v>
       </c>
       <c r="AY24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -4852,46 +4919,46 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" t="n">
         <v>29</v>
       </c>
       <c r="F25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" t="n">
-        <v>0.547</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="J25" t="n">
-        <v>86.40000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.46</v>
+        <v>0.462</v>
       </c>
       <c r="L25" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="M25" t="n">
         <v>26.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.357</v>
+        <v>0.361</v>
       </c>
       <c r="O25" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P25" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.784</v>
+        <v>0.785</v>
       </c>
       <c r="R25" t="n">
         <v>10.6</v>
@@ -4903,19 +4970,19 @@
         <v>42.5</v>
       </c>
       <c r="U25" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V25" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W25" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="X25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
         <v>22.2</v>
@@ -4924,25 +4991,25 @@
         <v>20.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.7</v>
+        <v>106.1</v>
       </c>
       <c r="AC25" t="n">
         <v>1.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI25" t="n">
         <v>3</v>
@@ -4960,10 +5027,10 @@
         <v>5</v>
       </c>
       <c r="AN25" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP25" t="n">
         <v>25</v>
@@ -4981,10 +5048,10 @@
         <v>19</v>
       </c>
       <c r="AU25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW25" t="n">
         <v>5</v>
@@ -5005,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="BC25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" t="n">
         <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>0.673</v>
+        <v>0.667</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
@@ -5052,10 +5119,10 @@
         <v>38.4</v>
       </c>
       <c r="J26" t="n">
-        <v>86.3</v>
+        <v>86.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L26" t="n">
         <v>10.1</v>
@@ -5064,25 +5131,25 @@
         <v>27.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O26" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P26" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R26" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="S26" t="n">
         <v>34.9</v>
       </c>
       <c r="T26" t="n">
-        <v>45.8</v>
+        <v>46</v>
       </c>
       <c r="U26" t="n">
         <v>22.3</v>
@@ -5106,16 +5173,16 @@
         <v>19.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
@@ -5124,13 +5191,13 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
         <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AK26" t="n">
         <v>19</v>
@@ -5145,7 +5212,7 @@
         <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP26" t="n">
         <v>27</v>
@@ -5160,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU26" t="n">
         <v>9</v>
@@ -5169,16 +5236,16 @@
         <v>10</v>
       </c>
       <c r="AW26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX26" t="n">
         <v>9</v>
       </c>
       <c r="AY26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA26" t="n">
         <v>24</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" t="n">
         <v>32</v>
       </c>
       <c r="G27" t="n">
-        <v>0.36</v>
+        <v>0.347</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
       </c>
       <c r="I27" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J27" t="n">
-        <v>80.09999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="K27" t="n">
         <v>0.451</v>
@@ -5243,37 +5310,37 @@
         <v>5.1</v>
       </c>
       <c r="M27" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N27" t="n">
         <v>0.326</v>
       </c>
       <c r="O27" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="P27" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.778</v>
+        <v>0.78</v>
       </c>
       <c r="R27" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S27" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T27" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U27" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V27" t="n">
         <v>16.4</v>
       </c>
       <c r="W27" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X27" t="n">
         <v>3.9</v>
@@ -5282,28 +5349,28 @@
         <v>6</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA27" t="n">
         <v>24.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.2</v>
+        <v>100.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>-3.8</v>
+        <v>-4</v>
       </c>
       <c r="AD27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF27" t="n">
         <v>22</v>
       </c>
-      <c r="AE27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>21</v>
-      </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
         <v>6</v>
@@ -5333,13 +5400,13 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT27" t="n">
         <v>8</v>
@@ -5366,10 +5433,10 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -5401,34 +5468,34 @@
         <v>50</v>
       </c>
       <c r="E28" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G28" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="H28" t="n">
         <v>48.9</v>
       </c>
       <c r="I28" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J28" t="n">
-        <v>83.40000000000001</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.453</v>
+        <v>0.457</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="M28" t="n">
         <v>22.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.364</v>
+        <v>0.37</v>
       </c>
       <c r="O28" t="n">
         <v>16.7</v>
@@ -5440,49 +5507,49 @@
         <v>0.764</v>
       </c>
       <c r="R28" t="n">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="S28" t="n">
         <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
         <v>24.4</v>
       </c>
       <c r="V28" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W28" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X28" t="n">
         <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>100.7</v>
+        <v>101.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="n">
         <v>9</v>
@@ -5494,10 +5561,10 @@
         <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5509,46 +5576,46 @@
         <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT28" t="n">
         <v>12</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>11</v>
       </c>
       <c r="AU28" t="n">
         <v>5</v>
       </c>
       <c r="AV28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW28" t="n">
         <v>14</v>
       </c>
       <c r="AX28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA28" t="n">
         <v>20</v>
       </c>
       <c r="BB28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -5580,40 +5647,40 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" t="n">
         <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>0.673</v>
+        <v>0.667</v>
       </c>
       <c r="H29" t="n">
         <v>48.6</v>
       </c>
       <c r="I29" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J29" t="n">
-        <v>84.09999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="K29" t="n">
         <v>0.458</v>
       </c>
       <c r="L29" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="M29" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="N29" t="n">
         <v>0.349</v>
       </c>
       <c r="O29" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P29" t="n">
         <v>25.5</v>
@@ -5622,19 +5689,19 @@
         <v>0.781</v>
       </c>
       <c r="R29" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S29" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U29" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V29" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W29" t="n">
         <v>7.4</v>
@@ -5643,25 +5710,25 @@
         <v>4.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z29" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA29" t="n">
         <v>21.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>105.8</v>
+        <v>106.2</v>
       </c>
       <c r="AC29" t="n">
         <v>4.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF29" t="n">
         <v>5</v>
@@ -5670,25 +5737,25 @@
         <v>5</v>
       </c>
       <c r="AH29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK29" t="n">
         <v>9</v>
       </c>
-      <c r="AI29" t="n">
+      <c r="AL29" t="n">
         <v>8</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>9</v>
-      </c>
       <c r="AM29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5715,10 +5782,10 @@
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>24</v>
@@ -5849,7 +5916,7 @@
         <v>25</v>
       </c>
       <c r="AG30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5888,7 +5955,7 @@
         <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
         <v>27</v>
@@ -5900,7 +5967,7 @@
         <v>26</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
         <v>13</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>2.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE31" t="n">
         <v>9</v>
@@ -6034,7 +6101,7 @@
         <v>10</v>
       </c>
       <c r="AH31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
@@ -6043,7 +6110,7 @@
         <v>20</v>
       </c>
       <c r="AK31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6070,7 +6137,7 @@
         <v>9</v>
       </c>
       <c r="AT31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU31" t="n">
         <v>6</v>
@@ -6079,7 +6146,7 @@
         <v>20</v>
       </c>
       <c r="AW31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX31" t="n">
         <v>14</v>
@@ -6094,7 +6161,7 @@
         <v>17</v>
       </c>
       <c r="BB31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
         <v>12</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-8-2014-15</t>
+          <t>2015-02-08</t>
         </is>
       </c>
     </row>
